--- a/input/static_data/cost/season_16/player_cost_GW17.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW17.xlsx
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>5000000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5000000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D13" t="n">
-        <v>5000000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E13" t="n">
-        <v>5000000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F13" t="n">
-        <v>5000000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G13" t="n">
-        <v>5000000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H13" t="n">
-        <v>5000000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I13" t="n">
-        <v>5000000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J13" t="n">
-        <v>5000000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K13" t="n">
-        <v>5000000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L13" t="n">
-        <v>5000000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="14">
@@ -673,37 +673,37 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C16" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D16" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E16" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F16" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G16" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H16" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I16" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J16" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K16" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L16" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="17">
@@ -749,37 +749,37 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="19">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C19" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D19" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E19" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F19" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G19" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H19" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I19" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J19" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K19" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L19" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="20">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C26" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D26" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E26" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F26" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G26" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H26" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I26" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J26" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K26" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L26" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="27">
@@ -1319,37 +1319,37 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C33" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E33" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F33" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G33" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H33" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I33" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J33" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K33" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L33" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="34">
@@ -1433,37 +1433,37 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C36" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D36" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E36" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F36" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H36" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I36" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J36" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K36" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L36" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="37">
@@ -1813,37 +1813,37 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="47">
@@ -1927,37 +1927,37 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C49" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D49" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E49" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F49" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G49" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H49" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I49" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J49" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K49" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L49" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="50">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C51" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D51" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E51" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F51" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G51" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H51" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I51" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J51" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K51" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L51" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="52">
@@ -2079,37 +2079,37 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C53" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D53" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E53" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F53" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G53" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H53" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I53" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J53" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K53" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L53" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="54">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C65" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D65" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E65" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F65" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G65" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H65" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I65" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J65" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K65" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L65" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C69" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D69" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E69" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F69" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G69" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H69" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I69" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J69" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K69" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L69" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="70">
@@ -2725,37 +2725,37 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C70" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D70" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E70" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F70" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G70" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H70" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I70" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J70" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K70" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L70" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="71">
@@ -2839,37 +2839,37 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="74">
@@ -2877,37 +2877,37 @@
         <v>73.0</v>
       </c>
       <c r="B74" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C74" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D74" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E74" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F74" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G74" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H74" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I74" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J74" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K74" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L74" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="75">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C76" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D76" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E76" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F76" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G76" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H76" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I76" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J76" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K76" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L76" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="77">
@@ -3105,37 +3105,37 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C80" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D80" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E80" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F80" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G80" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H80" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I80" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J80" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K80" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L80" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="81">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C90" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D90" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E90" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F90" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G90" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H90" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I90" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J90" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K90" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L90" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="91">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>4200000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="92">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C93" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D93" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E93" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F93" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G93" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H93" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I93" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J93" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K93" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L93" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="94">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C97" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D97" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E97" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F97" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G97" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H97" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I97" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J97" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K97" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L97" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="98">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C101" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D101" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E101" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F101" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G101" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H101" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I101" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J101" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K101" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L101" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="102">
@@ -4055,37 +4055,37 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="n">
-        <v>6600000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C105" t="n">
-        <v>6600000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D105" t="n">
-        <v>6600000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E105" t="n">
-        <v>6600000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F105" t="n">
-        <v>6600000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G105" t="n">
-        <v>6600000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H105" t="n">
-        <v>6600000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I105" t="n">
-        <v>6600000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J105" t="n">
-        <v>6600000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K105" t="n">
-        <v>6600000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L105" t="n">
-        <v>6600000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="106">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C106" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D106" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E106" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F106" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G106" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H106" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I106" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J106" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K106" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L106" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="110">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="117">
@@ -4549,37 +4549,37 @@
         <v>117.0</v>
       </c>
       <c r="B118" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C118" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D118" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E118" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F118" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G118" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H118" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I118" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J118" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K118" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L118" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="119">
@@ -4815,37 +4815,37 @@
         <v>124.0</v>
       </c>
       <c r="B125" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C125" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D125" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E125" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F125" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G125" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H125" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I125" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J125" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K125" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L125" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="126">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>5600000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C128" t="n">
-        <v>5600000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D128" t="n">
-        <v>5600000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E128" t="n">
-        <v>5600000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F128" t="n">
-        <v>5600000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G128" t="n">
-        <v>5600000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H128" t="n">
-        <v>5600000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I128" t="n">
-        <v>5600000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J128" t="n">
-        <v>5600000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K128" t="n">
-        <v>5600000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L128" t="n">
-        <v>5600000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="129">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C132" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D132" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E132" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F132" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G132" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H132" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I132" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J132" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K132" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L132" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="133">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C138" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D138" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E138" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F138" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G138" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H138" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I138" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J138" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K138" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L138" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="139">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C159" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D159" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E159" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F159" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G159" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H159" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I159" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J159" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K159" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L159" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="160">
@@ -6259,37 +6259,37 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="164">
@@ -6297,37 +6297,37 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C164" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D164" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E164" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F164" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G164" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H164" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I164" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J164" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K164" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L164" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="165">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C165" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D165" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E165" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F165" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G165" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H165" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I165" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J165" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K165" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L165" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="166">
@@ -6373,37 +6373,37 @@
         <v>165.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C166" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D166" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E166" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F166" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G166" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H166" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I166" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J166" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K166" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L166" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="167">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C168" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D168" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E168" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F168" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G168" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H168" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I168" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J168" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K168" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L168" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="169">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C177" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D177" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E177" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F177" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G177" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I177" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J177" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K177" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L177" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="178">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C187" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D187" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E187" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F187" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H187" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J187" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K187" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L187" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C200" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D200" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E200" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F200" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G200" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H200" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I200" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J200" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K200" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L200" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="201">
@@ -8121,37 +8121,37 @@
         <v>211.0</v>
       </c>
       <c r="B212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="213">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C224" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D224" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E224" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F224" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G224" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H224" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I224" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J224" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K224" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L224" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="225">
@@ -8615,37 +8615,37 @@
         <v>224.0</v>
       </c>
       <c r="B225" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C225" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D225" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E225" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F225" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G225" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H225" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I225" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J225" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K225" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L225" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="226">
@@ -8995,37 +8995,37 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C235" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D235" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E235" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F235" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G235" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H235" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I235" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J235" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K235" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L235" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="236">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C238" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D238" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E238" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F238" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G238" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H238" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I238" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J238" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K238" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L238" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="239">
@@ -9185,37 +9185,37 @@
         <v>239.0</v>
       </c>
       <c r="B240" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C240" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D240" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E240" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F240" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G240" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H240" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I240" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J240" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K240" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L240" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="241">
@@ -9299,37 +9299,37 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C243" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D243" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E243" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F243" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G243" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H243" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I243" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J243" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K243" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L243" t="n">
-        <v>4500000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="244">
@@ -9489,37 +9489,37 @@
         <v>247.0</v>
       </c>
       <c r="B248" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C248" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D248" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E248" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F248" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G248" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H248" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I248" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J248" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K248" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L248" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="249">
@@ -9831,37 +9831,37 @@
         <v>256.0</v>
       </c>
       <c r="B257" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C257" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D257" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E257" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F257" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G257" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H257" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I257" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J257" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K257" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L257" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="258">
@@ -10021,37 +10021,37 @@
         <v>261.0</v>
       </c>
       <c r="B262" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C262" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D262" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E262" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F262" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G262" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H262" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I262" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J262" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K262" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L262" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="263">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="266">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C268" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D268" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E268" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F268" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G268" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H268" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I268" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J268" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K268" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L268" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="269">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="273">
@@ -10439,37 +10439,37 @@
         <v>272.0</v>
       </c>
       <c r="B273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="274">
@@ -10629,37 +10629,37 @@
         <v>277.0</v>
       </c>
       <c r="B278" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C278" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D278" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E278" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F278" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G278" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H278" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I278" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J278" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K278" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L278" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="279">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C280" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D280" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E280" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F280" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G280" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H280" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I280" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J280" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K280" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L280" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>9500000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="C282" t="n">
-        <v>9500000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="D282" t="n">
-        <v>9500000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="E282" t="n">
-        <v>9500000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="F282" t="n">
-        <v>9500000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="G282" t="n">
-        <v>9500000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="H282" t="n">
-        <v>9500000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="I282" t="n">
-        <v>9500000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="J282" t="n">
-        <v>9500000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="K282" t="n">
-        <v>9500000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="L282" t="n">
-        <v>9500000.0</v>
+        <v>9600000.0</v>
       </c>
     </row>
     <row r="283">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C309" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D309" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E309" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F309" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G309" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H309" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I309" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J309" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K309" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L309" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="310">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C315" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D315" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E315" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F315" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G315" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H315" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I315" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J315" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K315" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L315" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="316">
@@ -12225,37 +12225,37 @@
         <v>319.0</v>
       </c>
       <c r="B320" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C320" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D320" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E320" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F320" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G320" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H320" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I320" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J320" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K320" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L320" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="321">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C323" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D323" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E323" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F323" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G323" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H323" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I323" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J323" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K323" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L323" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="324">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C338" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D338" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E338" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F338" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G338" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H338" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I338" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J338" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K338" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L338" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="339">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C342" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D342" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E342" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F342" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G342" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H342" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I342" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J342" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K342" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L342" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="343">
@@ -13175,37 +13175,37 @@
         <v>344.0</v>
       </c>
       <c r="B345" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C345" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D345" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E345" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F345" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G345" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H345" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I345" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J345" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K345" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L345" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="346">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C353" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D353" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E353" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F353" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G353" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H353" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I353" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J353" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K353" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L353" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="354">
@@ -13555,37 +13555,37 @@
         <v>354.0</v>
       </c>
       <c r="B355" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C355" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D355" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E355" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F355" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G355" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H355" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I355" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J355" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K355" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L355" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="356">
@@ -13745,37 +13745,37 @@
         <v>359.0</v>
       </c>
       <c r="B360" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C360" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D360" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E360" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F360" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G360" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H360" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I360" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J360" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K360" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L360" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="361">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C362" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D362" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E362" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F362" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G362" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H362" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I362" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J362" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K362" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L362" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>7200000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C364" t="n">
-        <v>7200000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D364" t="n">
-        <v>7200000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E364" t="n">
-        <v>7200000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F364" t="n">
-        <v>7200000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>7200000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H364" t="n">
-        <v>7200000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I364" t="n">
-        <v>7200000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J364" t="n">
-        <v>7200000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K364" t="n">
-        <v>7200000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L364" t="n">
-        <v>7200000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7400000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7400000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>7400000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>7400000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>7400000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>7400000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>7400000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>7400000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>7400000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>7400000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>7400000.0</v>
+        <v>7900000.0</v>
       </c>
     </row>
     <row r="367">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="390">
@@ -14885,37 +14885,37 @@
         <v>389.0</v>
       </c>
       <c r="B390" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C390" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D390" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E390" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F390" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G390" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H390" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I390" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J390" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K390" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L390" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="391">
@@ -14999,37 +14999,37 @@
         <v>392.0</v>
       </c>
       <c r="B393" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C393" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D393" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E393" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F393" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G393" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H393" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I393" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J393" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K393" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L393" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="394">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="C395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="F395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="H395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="K395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="L395" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C397" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D397" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E397" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F397" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G397" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H397" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I397" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J397" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K397" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L397" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>9100000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="C400" t="n">
-        <v>9100000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="D400" t="n">
-        <v>9100000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="E400" t="n">
-        <v>9100000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="F400" t="n">
-        <v>9100000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>9100000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="H400" t="n">
-        <v>9100000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="I400" t="n">
-        <v>9100000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="J400" t="n">
-        <v>9100000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="K400" t="n">
-        <v>9100000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="L400" t="n">
-        <v>9100000.0</v>
+        <v>9500000.0</v>
       </c>
     </row>
     <row r="401">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.05E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.05E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.05E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.05E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.05E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.05E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.05E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.05E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.05E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.05E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.05E7</v>
+        <v>1.07E7</v>
       </c>
     </row>
     <row r="408">
@@ -15759,37 +15759,37 @@
         <v>412.0</v>
       </c>
       <c r="B413" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C413" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D413" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E413" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F413" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G413" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H413" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I413" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J413" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K413" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L413" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="414">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="C414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="D414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="E414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="F414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="G414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="H414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="I414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="J414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="K414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="L414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="417">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="C423" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="D423" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="E423" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="F423" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="G423" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="H423" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="I423" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="J423" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="K423" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="L423" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
     </row>
     <row r="424">
@@ -16177,37 +16177,37 @@
         <v>423.0</v>
       </c>
       <c r="B424" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C424" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D424" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E424" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F424" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G424" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H424" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I424" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J424" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K424" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L424" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="425">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C425" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D425" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E425" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F425" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G425" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H425" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I425" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J425" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K425" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L425" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C428" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D428" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E428" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F428" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G428" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H428" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I428" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J428" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K428" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L428" t="n">
-        <v>8500000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="429">
@@ -16975,37 +16975,37 @@
         <v>444.0</v>
       </c>
       <c r="B445" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C445" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D445" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E445" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F445" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G445" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H445" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I445" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J445" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K445" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L445" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="446">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C446" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D446" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E446" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F446" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G446" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H446" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I446" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J446" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K446" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L446" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C447" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D447" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E447" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F447" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G447" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H447" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I447" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J447" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K447" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L447" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="448">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C450" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D450" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E450" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F450" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G450" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H450" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I450" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J450" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K450" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L450" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="451">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C456" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D456" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E456" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F456" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G456" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H456" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I456" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J456" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K456" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L456" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="457">
@@ -17697,37 +17697,37 @@
         <v>463.0</v>
       </c>
       <c r="B464" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C464" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D464" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E464" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F464" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G464" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H464" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I464" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J464" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K464" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L464" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="465">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C473" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D473" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E473" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F473" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G473" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H473" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I473" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J473" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K473" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L473" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="474">
@@ -18267,37 +18267,37 @@
         <v>478.0</v>
       </c>
       <c r="B479" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C479" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D479" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E479" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F479" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G479" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H479" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I479" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J479" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K479" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L479" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="480">
@@ -18305,37 +18305,37 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C480" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D480" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E480" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F480" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G480" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H480" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I480" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J480" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K480" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L480" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="481">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>8700000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>8700000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>8700000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>8700000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>8700000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>8700000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>8700000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>8700000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>8700000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>8700000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>8700000.0</v>
+        <v>8100000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="C485" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="D485" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="E485" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="F485" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="G485" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="H485" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="I485" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="J485" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="K485" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="L485" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
     </row>
     <row r="486">
@@ -18685,37 +18685,37 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>6800000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C490" t="n">
-        <v>6800000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D490" t="n">
-        <v>6800000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E490" t="n">
-        <v>6800000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F490" t="n">
-        <v>6800000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G490" t="n">
-        <v>6800000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H490" t="n">
-        <v>6800000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I490" t="n">
-        <v>6800000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J490" t="n">
-        <v>6800000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K490" t="n">
-        <v>6800000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L490" t="n">
-        <v>6800000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="491">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C496" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D496" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E496" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F496" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G496" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H496" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I496" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J496" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K496" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L496" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="497">
@@ -19027,37 +19027,37 @@
         <v>498.0</v>
       </c>
       <c r="B499" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C499" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D499" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E499" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F499" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G499" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H499" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I499" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J499" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K499" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L499" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="500">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="506">
@@ -19331,37 +19331,37 @@
         <v>506.0</v>
       </c>
       <c r="B507" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C507" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D507" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E507" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F507" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G507" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H507" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I507" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J507" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K507" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L507" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="508">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C513" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D513" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E513" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F513" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G513" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H513" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I513" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J513" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K513" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L513" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="514">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5900000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>6900000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C523" t="n">
-        <v>6900000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D523" t="n">
-        <v>6900000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E523" t="n">
-        <v>6900000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F523" t="n">
-        <v>6900000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G523" t="n">
-        <v>6900000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H523" t="n">
-        <v>6900000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I523" t="n">
-        <v>6900000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J523" t="n">
-        <v>6900000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K523" t="n">
-        <v>6900000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L523" t="n">
-        <v>6900000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="524">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C527" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D527" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E527" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F527" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G527" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H527" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I527" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J527" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K527" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L527" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="528">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L532" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="533">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C537" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D537" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E537" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F537" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G537" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H537" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I537" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J537" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K537" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L537" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="538">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="543">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>7900000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C549" t="n">
-        <v>7900000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D549" t="n">
-        <v>7900000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E549" t="n">
-        <v>7900000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F549" t="n">
-        <v>7900000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G549" t="n">
-        <v>7900000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H549" t="n">
-        <v>7900000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I549" t="n">
-        <v>7900000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J549" t="n">
-        <v>7900000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K549" t="n">
-        <v>7900000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L549" t="n">
-        <v>7900000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="550">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C552" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D552" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E552" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F552" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G552" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H552" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I552" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J552" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K552" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L552" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="553">
@@ -21079,37 +21079,37 @@
         <v>552.0</v>
       </c>
       <c r="B553" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C553" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D553" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E553" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F553" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G553" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H553" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I553" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J553" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K553" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L553" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="554">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C554" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D554" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E554" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F554" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G554" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H554" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I554" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J554" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K554" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L554" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="555">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>1.03E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="C558" t="n">
-        <v>1.03E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="D558" t="n">
-        <v>1.03E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="E558" t="n">
-        <v>1.03E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="F558" t="n">
-        <v>1.03E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="G558" t="n">
-        <v>1.03E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="H558" t="n">
-        <v>1.03E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="I558" t="n">
-        <v>1.03E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="J558" t="n">
-        <v>1.03E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="K558" t="n">
-        <v>1.03E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="L558" t="n">
-        <v>1.03E7</v>
+        <v>1.07E7</v>
       </c>
     </row>
     <row r="559">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C559" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D559" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E559" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F559" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G559" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H559" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I559" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J559" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K559" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L559" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="560">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>7400000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C562" t="n">
-        <v>7400000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D562" t="n">
-        <v>7400000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E562" t="n">
-        <v>7400000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F562" t="n">
-        <v>7400000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G562" t="n">
-        <v>7400000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H562" t="n">
-        <v>7400000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I562" t="n">
-        <v>7400000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J562" t="n">
-        <v>7400000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K562" t="n">
-        <v>7400000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L562" t="n">
-        <v>7400000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="563">
@@ -21535,37 +21535,37 @@
         <v>564.0</v>
       </c>
       <c r="B565" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C565" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D565" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E565" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F565" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G565" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H565" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I565" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J565" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K565" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L565" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="566">
@@ -21611,37 +21611,37 @@
         <v>566.0</v>
       </c>
       <c r="B567" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C567" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D567" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E567" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F567" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G567" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H567" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I567" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J567" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K567" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L567" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="568">
@@ -21915,37 +21915,37 @@
         <v>574.0</v>
       </c>
       <c r="B575" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C575" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D575" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E575" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F575" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G575" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H575" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I575" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J575" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K575" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L575" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="576">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C578" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D578" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E578" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F578" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G578" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H578" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I578" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J578" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K578" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L578" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="579">
@@ -22067,37 +22067,37 @@
         <v>578.0</v>
       </c>
       <c r="B579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="580">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>9000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C583" t="n">
-        <v>9000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D583" t="n">
-        <v>9000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E583" t="n">
-        <v>9000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F583" t="n">
-        <v>9000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G583" t="n">
-        <v>9000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H583" t="n">
-        <v>9000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I583" t="n">
-        <v>9000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J583" t="n">
-        <v>9000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K583" t="n">
-        <v>9000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L583" t="n">
-        <v>9000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="584">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="C584" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="D584" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="E584" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="F584" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="G584" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="H584" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="I584" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="J584" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="K584" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="L584" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>9600000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="C585" t="n">
-        <v>9600000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="D585" t="n">
-        <v>9600000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="E585" t="n">
-        <v>9600000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="F585" t="n">
-        <v>9600000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="G585" t="n">
-        <v>9600000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="H585" t="n">
-        <v>9600000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="I585" t="n">
-        <v>9600000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="J585" t="n">
-        <v>9600000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="K585" t="n">
-        <v>9600000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="L585" t="n">
-        <v>9600000.0</v>
+        <v>9400000.0</v>
       </c>
     </row>
     <row r="586">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C586" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D586" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E586" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F586" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G586" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H586" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I586" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J586" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K586" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L586" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="587">
@@ -22561,37 +22561,37 @@
         <v>591.0</v>
       </c>
       <c r="B592" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C592" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D592" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E592" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F592" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G592" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H592" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I592" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J592" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K592" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L592" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="593">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C593" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D593" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E593" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F593" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G593" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H593" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I593" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J593" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K593" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L593" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="594">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C599" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D599" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E599" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F599" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G599" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H599" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I599" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J599" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K599" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L599" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="600">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C603" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D603" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E603" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F603" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G603" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H603" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I603" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J603" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K603" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L603" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="604">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23245,37 +23245,37 @@
         <v>609.0</v>
       </c>
       <c r="B610" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C610" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D610" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E610" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F610" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G610" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H610" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I610" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J610" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K610" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L610" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="611">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C611" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D611" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E611" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F611" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G611" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H611" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I611" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J611" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K611" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L611" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="612">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C617" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D617" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E617" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F617" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G617" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H617" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I617" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J617" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K617" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L617" t="n">
-        <v>6800000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="618">
